--- a/compiladores-laboratorio1/target/classes/Hoja.xlsx
+++ b/compiladores-laboratorio1/target/classes/Hoja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Libro" sheetId="2" r:id="rId1"/>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -906,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>

--- a/compiladores-laboratorio1/target/classes/Hoja.xlsx
+++ b/compiladores-laboratorio1/target/classes/Hoja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Libro" sheetId="2" r:id="rId1"/>
@@ -15,31 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
-  <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Autor</t>
-  </si>
-  <si>
-    <t>Editorial</t>
-  </si>
-  <si>
-    <t>Pais</t>
-  </si>
-  <si>
-    <t>Idioma</t>
-  </si>
-  <si>
-    <t>Detalles</t>
-  </si>
-  <si>
-    <t>Estudiante_Prestamo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>000-0001</t>
   </si>
@@ -65,27 +41,9 @@
     <t>000-0008</t>
   </si>
   <si>
-    <t>Identificacion</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Correo Electronico</t>
-  </si>
-  <si>
-    <t>Universidad</t>
-  </si>
-  <si>
-    <t>1 1111 111</t>
-  </si>
-  <si>
     <t>Pablo</t>
   </si>
   <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
     <t>Guadalupe</t>
   </si>
   <si>
@@ -225,6 +183,60 @@
   </si>
   <si>
     <t>Ana</t>
+  </si>
+  <si>
+    <t>1 -1111 -111</t>
+  </si>
+  <si>
+    <t>1 -2343-122</t>
+  </si>
+  <si>
+    <t>2 -3233-777</t>
+  </si>
+  <si>
+    <t>9 -8212-214</t>
+  </si>
+  <si>
+    <t>7-8954-178</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>universidad</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>autor</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>lenguaje</t>
+  </si>
+  <si>
+    <t>detalles</t>
+  </si>
+  <si>
+    <t>propietario</t>
   </si>
 </sst>
 </file>
@@ -277,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,6 +299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -594,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,236 +624,236 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,6 +899,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E16" s="2"/>
@@ -906,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A3:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,122 +935,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
